--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362445.1730451715</v>
+        <v>359713.5935833469</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>17.58631917313259</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>111.2954797285439</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>32.60465838343553</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.06754378872164</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>209.5972717395339</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>163.8427767359261</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>200.1019755706699</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>221.2703037635479</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>68.2051025827008</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>57.44485242550317</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.433274042814679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.52413829227</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>126.4418041083148</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.1367608075423</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>188.7692896015406</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>135.3120514073134</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>124.6209519256077</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>135.9022120075016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904731</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>77.3950726440254</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>81.47435506334391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>120.4424239494343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>188.769289601541</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>41.1667312069662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>4.444394634329087</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1322.340737411353</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>953.3782204709412</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>595.1125218641907</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>595.1125218641907</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>184.1266170745832</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>166.3626583138432</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>166.3626583138432</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y2" t="n">
-        <v>1322.340737411353</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>262.4049475251852</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>93.40514726351762</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2355.473849053679</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2355.473849053679</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2355.473849053679</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.440290876697</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>955.9349335397801</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>597.6692349330297</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>2012.8703329856</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.179462916631</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.179462916631</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1566.040130940819</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>296.5836898399692</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>800.9452297060877</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2093.514403512715</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2517.482171993552</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.1785207157008</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>344.2423377877939</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>344.2423377877939</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>196.3292442054008</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>995.8525598196049</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>741.1680716137181</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W10" t="n">
-        <v>741.1680716137181</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X10" t="n">
-        <v>513.1785207157008</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.1785207157008</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911441</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835342</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711984</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888053</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.724593490895</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885211</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741681</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683273</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1296.426404025081</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.436853127063</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.644273983533</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>486.0795508855734</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>339.1896033876631</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>171.993504102543</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1646.803297079993</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,16 +7415,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>159.797420900238</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>176.8008973295431</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.03931925844918</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>106.8374356684</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.63583651631732</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>295.1476000866994</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.26785128072233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.695219374395</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>63.36835372228742</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>90.39760398172379</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>55.2110282563296</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>150.6207863290894</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.948418198241</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>62.89964020219848</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>205.0486432732471</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>131.6952193743937</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>63.36835372228697</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>44.83521572366135</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>212.9610556929592</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>335917.9865019029</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
@@ -26329,7 +26329,7 @@
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605026</v>
@@ -26338,22 +26338,22 @@
         <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="N2" t="n">
-        <v>363215.9698605027</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.5317503682</v>
+        <v>167367.5317503681</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26427,34 +26427,34 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.53656668276</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682759</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-504276.5025264191</v>
+        <v>-504462.895914958</v>
       </c>
       <c r="C6" t="n">
-        <v>76687.30291248465</v>
+        <v>76687.30291248471</v>
       </c>
       <c r="D6" t="n">
-        <v>-79116.50318131025</v>
+        <v>-79116.50318131017</v>
       </c>
       <c r="E6" t="n">
-        <v>-514636.7879108935</v>
+        <v>-514671.5258363293</v>
       </c>
       <c r="F6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="G6" t="n">
-        <v>256415.9034699131</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="H6" t="n">
-        <v>256415.9034699126</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="I6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.165544477</v>
       </c>
       <c r="J6" t="n">
-        <v>79992.68427731995</v>
+        <v>79957.94635188405</v>
       </c>
       <c r="K6" t="n">
-        <v>256415.9034699126</v>
+        <v>256381.1655444773</v>
       </c>
       <c r="L6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="M6" t="n">
-        <v>132207.392761854</v>
+        <v>132172.6548364187</v>
       </c>
       <c r="N6" t="n">
-        <v>256415.903469913</v>
+        <v>256381.165544477</v>
       </c>
       <c r="O6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="P6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444769</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,14 +26975,14 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>258.4354561026075</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>396.1978508476624</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>117.1033450530735</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>155.6756200314737</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>52.60554362173167</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>89.56002855569147</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>18.48267778142488</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>144.0025880074597</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>338.6709431590106</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>228.8158022325938</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.7043692810133</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>331.6853252608032</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>245.091624262227</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.0059265331734</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5104291586726</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
